--- a/Input/purchase_plan_21_7_2025.xlsx
+++ b/Input/purchase_plan_21_7_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio_Final_TCS/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{0579B1A4-533A-4AEE-B731-5A9DCCBE5E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48EF40B-25D4-4CD6-BD0F-FFFB4462F19E}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{3AF0E249-A0EE-430F-BD3F-B1E5FB2F3AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{161E3B2E-66D7-476C-84FA-EF7EE0202B2C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2B38BA15-078D-4BA8-B7E9-585EC3FE11E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2EB81DFF-69E3-47C7-BAB6-516CF2E32AA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -112,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +120,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,8 +154,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,10 +174,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,48 +492,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED34ECF4-5EC9-4A5E-839D-C10D810EA1C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8B78D5-6436-4A35-A506-E10F7BF89E00}">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -683,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D4F983-2E65-4979-BAF9-E3EE22522AB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A930CF2-48BA-4CD3-B7AA-F1234CF85867}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
